--- a/WebContent/hsw/3조 5차 요구사항정의서.xlsx
+++ b/WebContent/hsw/3조 5차 요구사항정의서.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\H\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\GitHub\project05\WebContent\hsw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{910B271E-5EEA-45AE-8F41-916968879CE6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{1C37E2B9-2E32-43F2-8C0A-409090FDD916}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="256">
   <si>
     <t>구분</t>
   </si>
@@ -685,13 +685,229 @@
   <si>
     <t>조립 컴퓨터 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 등록</t>
+  </si>
+  <si>
+    <t>회원 가입</t>
+  </si>
+  <si>
+    <t>아이디 중복 검사</t>
+  </si>
+  <si>
+    <t>약관 동의 절차</t>
+  </si>
+  <si>
+    <t>기본적인 회원정보를 입력하여 회원가입하는 기능</t>
+  </si>
+  <si>
+    <t>회원 서비스</t>
+  </si>
+  <si>
+    <t>상품 판매</t>
+  </si>
+  <si>
+    <t>상품 목록</t>
+  </si>
+  <si>
+    <t>관리자가 판매하는 조립컴퓨터, 컴퓨터부품을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>상품 상세정보</t>
+  </si>
+  <si>
+    <t>판매중인 상품의 상제정보를 볼 수 있는 기능</t>
+  </si>
+  <si>
+    <t>상품 구매</t>
+  </si>
+  <si>
+    <t>판매중인 상품을 구매하는 기능</t>
+  </si>
+  <si>
+    <t>상품 추가 구매</t>
+  </si>
+  <si>
+    <t>판매중인 상품에 추가 및 업그레이드할 부품 및 서비스를 선택하는 기능</t>
+  </si>
+  <si>
+    <t>장바구니 추가</t>
+  </si>
+  <si>
+    <t>상품을 장바구니에 추가하는 기능</t>
+  </si>
+  <si>
+    <t>구매를 희망하는 상품을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>장바구니 구매 및 삭제</t>
+  </si>
+  <si>
+    <t>장바구니에 있는 상품을 선택하여 구매하거나 일부 삭제하는 기능</t>
+  </si>
+  <si>
+    <t>고객센터</t>
+  </si>
+  <si>
+    <t>자주 묻는 질문</t>
+  </si>
+  <si>
+    <t>사이트의 FAQ 목록을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>1:1 문의 작성</t>
+  </si>
+  <si>
+    <t>관리자에게 궁금한 사항을 문의하는 기능</t>
+  </si>
+  <si>
+    <t>공지사항 및 이벤트 목록</t>
+  </si>
+  <si>
+    <t>사이트의 공지사항 및 이벤트를 조회하는 기능</t>
+  </si>
+  <si>
+    <t>말머리를 통해 공지와 이벤트 구분</t>
+  </si>
+  <si>
+    <t>자유게시판</t>
+  </si>
+  <si>
+    <t>상품 및 사이트이용에 대한 후기 및 컴퓨터 관련 내용을 자유롭게 작성하는 게시판 기능</t>
+  </si>
+  <si>
+    <t>계층을 사용하여 자유게시판을 만들어보면 어떨까요?</t>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+  </si>
+  <si>
+    <t>주문/배송관리</t>
+  </si>
+  <si>
+    <t>주문/배송 목록</t>
+  </si>
+  <si>
+    <t>내가 주문했던 물품을 조회하거나, 배송중인 물품을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>배송지 목록</t>
+  </si>
+  <si>
+    <t>이번에는 배송지 목록 대신 바로전에 보낸 배송지만을 저장하여, 다음주문때 불러오는 기능 어떠세요?</t>
+  </si>
+  <si>
+    <t>이벤트 참여현황</t>
+  </si>
+  <si>
+    <t>참여한 이벤트 목록</t>
+  </si>
+  <si>
+    <t>참여한 이벤트를 조회하는 기능</t>
+  </si>
+  <si>
+    <t>참여한 이벤트 상세정보</t>
+  </si>
+  <si>
+    <t>참여한 이벤트의 내용을 확인하고, 당첨여부를 알려주는 기능</t>
+  </si>
+  <si>
+    <t>1:1 문의</t>
+  </si>
+  <si>
+    <t>나의 1:1 문의 목록</t>
+  </si>
+  <si>
+    <t>1:1문의를 통해 질문한 내역 및 답변을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>마일리지</t>
+  </si>
+  <si>
+    <t>마일리지 적립/사용 목록</t>
+  </si>
+  <si>
+    <t>마일리지 적립/사용 내역을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>내정보</t>
+  </si>
+  <si>
+    <t>기본 회원정보를 수정하는 기능</t>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+  </si>
+  <si>
+    <t>정해진 절차를 통해 사이트에서 탈퇴하는 기능</t>
+  </si>
+  <si>
+    <t>실제로는 delete 아닌 '탈퇴' 상태로 변경</t>
+  </si>
+  <si>
+    <t>관리자 전용 페이지</t>
+  </si>
+  <si>
+    <t>번호 및 상태로 정렬</t>
+  </si>
+  <si>
+    <t>상품 관리</t>
+  </si>
+  <si>
+    <t>상품 목록 등록</t>
+  </si>
+  <si>
+    <t>사이트에 판매할 상품을 등록하는 기능</t>
+  </si>
+  <si>
+    <t>상품 상세정보 수정 및 삭제</t>
+  </si>
+  <si>
+    <t>사이트에서 판매중인 상품의 상세정보를 수정 및 삭제하는 기능</t>
+  </si>
+  <si>
+    <t>공지사항 및 이벤트 등록</t>
+  </si>
+  <si>
+    <t>사이트에 공지사항 및 이벤트를 등록하는 기능</t>
+  </si>
+  <si>
+    <t>공지사항 및 이벤트 수정 및 삭제</t>
+  </si>
+  <si>
+    <t>사이트에 등록된 공지사항 및 이벤트를 수정 및 삭제하는 기능</t>
+  </si>
+  <si>
+    <t>이벤트는 해당 이벤트에서 참여버튼을 눌러 참여 리스트를 받아 그 중 랜덤으로 당첨자를 선택한다.</t>
+  </si>
+  <si>
+    <t>1:1 문의 관리</t>
+  </si>
+  <si>
+    <t>1:1 문의 목록</t>
+  </si>
+  <si>
+    <t>회원들이 1:1 문의한 내용을 조회하는 기능</t>
+  </si>
+  <si>
+    <t>1:1 문의 답변</t>
+  </si>
+  <si>
+    <t>회원들의 1:1 문의에 답변을 등록하는 기능</t>
+  </si>
+  <si>
+    <t>사이트의 메인에서 보여줄 광고 및 이벤트 내용을 보여주는 기능</t>
+  </si>
+  <si>
+    <t>상품 테이블에 조회수 또는 상품추천 컬럼을 만들어 정렬기준으로 삼는다</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -714,8 +930,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +980,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="35">
     <border>
@@ -1205,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,49 +1536,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,113 +1698,65 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1765,10 +2071,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3754D7-8084-4EA6-A316-5C38E128D02E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1815,10 +2121,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="50" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -1835,8 +2141,8 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="38"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="13" t="s">
         <v>13</v>
       </c>
@@ -1851,8 +2157,8 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38"/>
-      <c r="C5" s="32"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="16" t="s">
         <v>15</v>
       </c>
@@ -1867,8 +2173,8 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="38"/>
-      <c r="C6" s="28" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="12" t="s">
@@ -1885,8 +2191,8 @@
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="38"/>
-      <c r="C7" s="29"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="13" t="s">
         <v>20</v>
       </c>
@@ -1901,8 +2207,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="39"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
@@ -1919,10 +2225,10 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="50" t="s">
         <v>24</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1939,8 +2245,8 @@
       <c r="K9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="30"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="17" t="s">
         <v>25</v>
       </c>
@@ -1955,11 +2261,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="30"/>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="48"/>
+      <c r="C11" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="56" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1973,9 +2279,9 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="1" t="s">
         <v>34</v>
       </c>
@@ -1987,8 +2293,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="51"/>
       <c r="D13" s="13" t="s">
         <v>31</v>
       </c>
@@ -2003,8 +2309,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="51"/>
       <c r="D14" s="13" t="s">
         <v>32</v>
       </c>
@@ -2019,8 +2325,8 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30"/>
-      <c r="C15" s="32"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="17" t="s">
         <v>35</v>
       </c>
@@ -2037,8 +2343,8 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B16" s="30"/>
-      <c r="C16" s="28" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="50" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="15" t="s">
@@ -2055,8 +2361,8 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="13" t="s">
         <v>31</v>
       </c>
@@ -2071,8 +2377,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="13" t="s">
         <v>42</v>
       </c>
@@ -2087,8 +2393,8 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="31"/>
-      <c r="C19" s="32"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="17" t="s">
         <v>35</v>
       </c>
@@ -2103,10 +2409,10 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="50" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="15" t="s">
@@ -2123,8 +2429,8 @@
       <c r="K20" s="11"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
@@ -2139,8 +2445,8 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="30"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="16" t="s">
         <v>52</v>
       </c>
@@ -2155,7 +2461,7 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="30"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="21" t="s">
         <v>54</v>
       </c>
@@ -2173,10 +2479,10 @@
       <c r="K23" s="20"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D24" s="15" t="s">
@@ -2193,8 +2499,8 @@
       <c r="K24" s="11"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="30"/>
-      <c r="C25" s="29"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="51"/>
       <c r="D25" s="13" t="s">
         <v>59</v>
       </c>
@@ -2209,8 +2515,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="30"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="16" t="s">
         <v>61</v>
       </c>
@@ -2225,7 +2531,7 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="30"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="23" t="s">
         <v>56</v>
       </c>
@@ -2243,7 +2549,7 @@
       <c r="K27" s="20"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31"/>
+      <c r="B28" s="49"/>
       <c r="C28" s="23" t="s">
         <v>44</v>
       </c>
@@ -2281,10 +2587,10 @@
       <c r="K29" s="20"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="56" t="s">
         <v>71</v>
       </c>
       <c r="D30" s="15" t="s">
@@ -2301,8 +2607,8 @@
       <c r="K30" s="11"/>
     </row>
     <row r="31" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="29"/>
-      <c r="C31" s="34"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="14" t="s">
         <v>74</v>
       </c>
@@ -2317,8 +2623,8 @@
       <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="30"/>
-      <c r="C32" s="28" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="50" t="s">
         <v>85</v>
       </c>
       <c r="D32" s="15" t="s">
@@ -2335,8 +2641,8 @@
       <c r="K32" s="11"/>
     </row>
     <row r="33" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="30"/>
-      <c r="C33" s="32"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
@@ -2351,8 +2657,8 @@
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="30"/>
-      <c r="C34" s="28" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="50" t="s">
         <v>90</v>
       </c>
       <c r="D34" s="15" t="s">
@@ -2369,8 +2675,8 @@
       <c r="K34" s="11"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B35" s="30"/>
-      <c r="C35" s="29"/>
+      <c r="B35" s="48"/>
+      <c r="C35" s="51"/>
       <c r="D35" s="13"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
@@ -2383,8 +2689,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="30"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="48"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="13" t="s">
         <v>31</v>
       </c>
@@ -2399,8 +2705,8 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B37" s="30"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="48"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="13" t="s">
         <v>92</v>
       </c>
@@ -2415,8 +2721,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="30"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="52"/>
       <c r="D38" s="16" t="s">
         <v>94</v>
       </c>
@@ -2431,8 +2737,8 @@
       <c r="K38" s="4"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="30"/>
-      <c r="C39" s="28" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="50" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="15" t="s">
@@ -2449,8 +2755,8 @@
       <c r="K39" s="11"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="30"/>
-      <c r="C40" s="29"/>
+      <c r="B40" s="48"/>
+      <c r="C40" s="51"/>
       <c r="D40" s="13" t="s">
         <v>31</v>
       </c>
@@ -2465,8 +2771,8 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="30"/>
-      <c r="C41" s="29"/>
+      <c r="B41" s="48"/>
+      <c r="C41" s="51"/>
       <c r="D41" s="13" t="s">
         <v>92</v>
       </c>
@@ -2481,8 +2787,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="30"/>
-      <c r="C42" s="29"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="13" t="s">
         <v>35</v>
       </c>
@@ -2497,8 +2803,8 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="30"/>
-      <c r="C43" s="32"/>
+      <c r="B43" s="48"/>
+      <c r="C43" s="52"/>
       <c r="D43" s="16" t="s">
         <v>97</v>
       </c>
@@ -2513,8 +2819,8 @@
       <c r="K43" s="4"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="30"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="48"/>
+      <c r="C44" s="50" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -2531,8 +2837,8 @@
       <c r="K44" s="11"/>
     </row>
     <row r="45" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="30"/>
-      <c r="C45" s="32"/>
+      <c r="B45" s="48"/>
+      <c r="C45" s="52"/>
       <c r="D45" s="16" t="s">
         <v>79</v>
       </c>
@@ -2547,8 +2853,8 @@
       <c r="K45" s="4"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="30"/>
-      <c r="C46" s="28" t="s">
+      <c r="B46" s="48"/>
+      <c r="C46" s="50" t="s">
         <v>81</v>
       </c>
       <c r="D46" s="15" t="s">
@@ -2565,8 +2871,8 @@
       <c r="K46" s="11"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="30"/>
-      <c r="C47" s="32"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="52"/>
       <c r="D47" s="16" t="s">
         <v>83</v>
       </c>
@@ -2581,8 +2887,8 @@
       <c r="K47" s="4"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="30"/>
-      <c r="C48" s="28" t="s">
+      <c r="B48" s="48"/>
+      <c r="C48" s="50" t="s">
         <v>56</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -2599,8 +2905,8 @@
       <c r="K48" s="11"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="31"/>
-      <c r="C49" s="32"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="52"/>
       <c r="D49" s="16" t="s">
         <v>101</v>
       </c>
@@ -2616,18 +2922,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B24:B28"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C15"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B9:B19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C22"/>
     <mergeCell ref="B30:B49"/>
     <mergeCell ref="C39:C43"/>
     <mergeCell ref="C34:C38"/>
@@ -2636,6 +2930,18 @@
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C44:C45"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B9:B19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B24:B28"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2644,11 +2950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D83FF3F-431C-4EA9-B70B-26460017E4E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2665,1187 +2971,1187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="45"/>
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="42" t="s">
+      <c r="I2" s="30" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="58"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="81"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="63"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="51"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="56" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="60" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="67" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="51"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="56" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="57" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="56" t="s">
+      <c r="A11" s="65"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="49"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="56" t="s">
+      <c r="A12" s="65"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="51"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="56" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="69" t="s">
+      <c r="A14" s="65"/>
+      <c r="B14" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="51"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="56" t="s">
+      <c r="A15" s="65"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="49"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="70" t="s">
+      <c r="A16" s="65"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="49"/>
-      <c r="B17" s="69" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="50" t="s">
+      <c r="D17" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="51"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="34"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="50" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="56" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="50" t="s">
+      <c r="D19" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="51"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="68"/>
-      <c r="C20" s="56" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="75" t="s">
+      <c r="E20" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="51"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="65"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="51"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="34"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="69" t="s">
+      <c r="A22" s="65"/>
+      <c r="B22" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="50" t="s">
+      <c r="D22" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="51"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="34"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="68"/>
-      <c r="C23" s="56" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="50" t="s">
+      <c r="D23" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="51"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="68"/>
-      <c r="C24" s="56" t="s">
+      <c r="A24" s="65"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="D24" s="50" t="s">
+      <c r="D24" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="51"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="34"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="49"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="56" t="s">
+      <c r="A25" s="65"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="51"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="65"/>
+      <c r="B26" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="50" t="s">
+      <c r="D26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="51"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="49"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="56" t="s">
+      <c r="A27" s="65"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="50" t="s">
+      <c r="D27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="51"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="56" t="s">
+      <c r="A28" s="65"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="D28" s="50" t="s">
+      <c r="D28" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="51"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="49"/>
-      <c r="B29" s="68"/>
-      <c r="C29" s="56" t="s">
+      <c r="A29" s="65"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="51"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="49"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="56" t="s">
+      <c r="A30" s="65"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="56" t="s">
+      <c r="A31" s="65"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="51"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="57" t="s">
+      <c r="A32" s="66"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="53" t="s">
+      <c r="D32" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="48"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="56" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="D34" s="50" t="s">
+      <c r="D34" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="51"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="56" t="s">
+      <c r="A35" s="65"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="D35" s="50" t="s">
+      <c r="D35" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="51"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="49"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="56" t="s">
+      <c r="A36" s="65"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="D36" s="50" t="s">
+      <c r="D36" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="51"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="49"/>
-      <c r="B37" s="69" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D37" s="50" t="s">
+      <c r="D37" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="50"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="51"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="34"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="56" t="s">
+      <c r="A38" s="65"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="51"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="34"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="49"/>
-      <c r="B39" s="69" t="s">
+      <c r="A39" s="65"/>
+      <c r="B39" s="61" t="s">
         <v>158</v>
       </c>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="50" t="s">
+      <c r="D39" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="51"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="34"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="49"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="56" t="s">
+      <c r="A40" s="65"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="50" t="s">
+      <c r="D40" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="51"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="34"/>
     </row>
     <row r="41" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="49"/>
-      <c r="B41" s="70" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="70" t="s">
+      <c r="C41" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="77"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="43"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="47"/>
-      <c r="I42" s="48"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="56" t="s">
+      <c r="A43" s="71"/>
+      <c r="B43" s="59"/>
+      <c r="C43" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="51"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
-      <c r="B44" s="60" t="s">
+      <c r="A44" s="71"/>
+      <c r="B44" s="59" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="51"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="34"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="63"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="56" t="s">
+      <c r="A45" s="71"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="33" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="51"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="34"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="63"/>
-      <c r="B46" s="60" t="s">
+      <c r="A46" s="71"/>
+      <c r="B46" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="C46" s="56" t="s">
+      <c r="C46" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="50"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="51"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="34"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="50" t="s">
+      <c r="A47" s="71"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="33" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="51"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="34"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="63"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="56" t="s">
+      <c r="A48" s="71"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="51"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="34"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="56" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="50"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="51"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="34"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="56" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="50" t="s">
+      <c r="D50" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="G50" s="50"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="51"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="34"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
-      <c r="B51" s="60" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="59" t="s">
         <v>183</v>
       </c>
-      <c r="C51" s="56" t="s">
+      <c r="C51" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="50" t="s">
+      <c r="D51" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="50"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="51"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="56" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="50" t="s">
+      <c r="D52" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="G52" s="50"/>
-      <c r="H52" s="50"/>
-      <c r="I52" s="51"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="34"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="56" t="s">
+      <c r="A53" s="71"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="33" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="51"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="63"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="56" t="s">
+      <c r="A54" s="71"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="51"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="63"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="56" t="s">
+      <c r="A55" s="71"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
-      <c r="H55" s="50"/>
-      <c r="I55" s="51"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="63"/>
-      <c r="B56" s="60" t="s">
+      <c r="A56" s="71"/>
+      <c r="B56" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="50" t="s">
+      <c r="D56" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
-      <c r="G56" s="50"/>
-      <c r="H56" s="50"/>
-      <c r="I56" s="51"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="56" t="s">
+      <c r="A57" s="71"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
-      <c r="G57" s="50"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="51"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="33"/>
+      <c r="I57" s="34"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="63"/>
-      <c r="B58" s="60" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="56" t="s">
+      <c r="C58" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="50" t="s">
+      <c r="D58" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="51"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="34"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="64"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="57" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D59" s="53" t="s">
+      <c r="D59" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="36"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A60" s="78"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="78"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="79"/>
-      <c r="H60" s="79"/>
-      <c r="I60" s="79"/>
-      <c r="J60" s="80"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="45"/>
+      <c r="J60" s="46"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A61" s="78"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="79"/>
-      <c r="H61" s="79"/>
-      <c r="I61" s="79"/>
-      <c r="J61" s="80"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="45"/>
+      <c r="F61" s="45"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="45"/>
+      <c r="J61" s="46"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A62" s="78"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="79"/>
-      <c r="J62" s="80"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="46"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A63" s="78"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="78"/>
-      <c r="D63" s="79"/>
-      <c r="E63" s="79"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="79"/>
-      <c r="H63" s="79"/>
-      <c r="I63" s="79"/>
-      <c r="J63" s="80"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45"/>
+      <c r="F63" s="45"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="45"/>
+      <c r="J63" s="46"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A64" s="78"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="78"/>
-      <c r="D64" s="79"/>
-      <c r="E64" s="79"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="79"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="79"/>
-      <c r="J64" s="80"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45"/>
+      <c r="F64" s="45"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="45"/>
+      <c r="J64" s="46"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A65" s="78"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="78"/>
-      <c r="D65" s="79"/>
-      <c r="E65" s="79"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="79"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="79"/>
-      <c r="J65" s="80"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="45"/>
+      <c r="F65" s="45"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="45"/>
+      <c r="J65" s="46"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A66" s="78"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="78"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="79"/>
-      <c r="J66" s="80"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="45"/>
+      <c r="J66" s="46"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A67" s="78"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="79"/>
-      <c r="E67" s="79"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="79"/>
-      <c r="H67" s="79"/>
-      <c r="I67" s="79"/>
-      <c r="J67" s="80"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45"/>
+      <c r="F67" s="45"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="45"/>
+      <c r="J67" s="46"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="78"/>
-      <c r="D68" s="79"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="79"/>
-      <c r="H68" s="79"/>
-      <c r="I68" s="79"/>
-      <c r="J68" s="80"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="45"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="45"/>
+      <c r="J68" s="46"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A69" s="78"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="78"/>
-      <c r="D69" s="79"/>
-      <c r="E69" s="79"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="79"/>
-      <c r="H69" s="79"/>
-      <c r="I69" s="79"/>
-      <c r="J69" s="80"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+      <c r="J69" s="46"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A70" s="78"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="78"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="79"/>
-      <c r="J70" s="80"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="45"/>
+      <c r="J70" s="46"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A71" s="78"/>
-      <c r="B71" s="78"/>
-      <c r="C71" s="78"/>
-      <c r="D71" s="79"/>
-      <c r="E71" s="79"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="79"/>
-      <c r="H71" s="79"/>
-      <c r="I71" s="79"/>
-      <c r="J71" s="80"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="45"/>
+      <c r="F71" s="45"/>
+      <c r="G71" s="45"/>
+      <c r="H71" s="45"/>
+      <c r="I71" s="45"/>
+      <c r="J71" s="46"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A72" s="78"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="79"/>
-      <c r="E72" s="79"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="79"/>
-      <c r="H72" s="79"/>
-      <c r="I72" s="79"/>
-      <c r="J72" s="80"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="45"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+      <c r="H72" s="45"/>
+      <c r="I72" s="45"/>
+      <c r="J72" s="46"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A73" s="78"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="78"/>
-      <c r="D73" s="79"/>
-      <c r="E73" s="79"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="79"/>
-      <c r="H73" s="79"/>
-      <c r="I73" s="79"/>
-      <c r="J73" s="80"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+      <c r="G73" s="45"/>
+      <c r="H73" s="45"/>
+      <c r="I73" s="45"/>
+      <c r="J73" s="46"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A74" s="78"/>
-      <c r="B74" s="78"/>
-      <c r="C74" s="78"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="79"/>
-      <c r="J74" s="80"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+      <c r="G74" s="45"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="45"/>
+      <c r="J74" s="46"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="80"/>
-      <c r="I75" s="80"/>
-      <c r="J75" s="80"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="46"/>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="46"/>
+      <c r="I75" s="46"/>
+      <c r="J75" s="46"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A76" s="80"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="46"/>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="46"/>
+      <c r="I76" s="46"/>
+      <c r="J76" s="46"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="80"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="80"/>
-      <c r="G77" s="80"/>
-      <c r="H77" s="80"/>
-      <c r="I77" s="80"/>
-      <c r="J77" s="80"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="46"/>
+      <c r="J77" s="46"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A78" s="80"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
+      <c r="A78" s="46"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="46"/>
+      <c r="F78" s="46"/>
+      <c r="G78" s="46"/>
+      <c r="H78" s="46"/>
+      <c r="I78" s="46"/>
+      <c r="J78" s="46"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A79" s="80"/>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="80"/>
-      <c r="I79" s="80"/>
-      <c r="J79" s="80"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="46"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="46"/>
+      <c r="G79" s="46"/>
+      <c r="H79" s="46"/>
+      <c r="I79" s="46"/>
+      <c r="J79" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:A32"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="A33:A41"/>
@@ -3860,14 +4166,480 @@
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B22:B25"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B26:B32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="88" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="89"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="90"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="90"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="91"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="82" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="91"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="91"/>
+    </row>
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="92"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E7" s="94"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="96" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="96" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="89"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="97"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="91"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="97"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="91"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="97"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="91"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="97"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="91"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="97"/>
+      <c r="B13" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="91"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="97"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>203</v>
+      </c>
+      <c r="E14" s="91"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="97"/>
+      <c r="B15" s="83" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="91"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="97"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83" t="s">
+        <v>207</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="91"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="97"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="83" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="91" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="89"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="90"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="84" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="90"/>
+      <c r="B21" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="83" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="91"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="90"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83" t="s">
+        <v>224</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="91"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="90"/>
+      <c r="B23" s="82" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>227</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>228</v>
+      </c>
+      <c r="E23" s="91"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="90"/>
+      <c r="B24" s="82" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24" s="91"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="90"/>
+      <c r="B25" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="91"/>
+    </row>
+    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="92"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="D26" s="93" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="94" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="95" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="89" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="97"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="85" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="91"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="97"/>
+      <c r="B29" s="83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="91"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="97"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="83" t="s">
+        <v>242</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>243</v>
+      </c>
+      <c r="E30" s="91"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="97"/>
+      <c r="B31" s="82" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="82" t="s">
+        <v>245</v>
+      </c>
+      <c r="E31" s="91"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="97"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="D32" s="82" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="97"/>
+      <c r="B33" s="82" t="s">
+        <v>249</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="D33" s="82" t="s">
+        <v>251</v>
+      </c>
+      <c r="E33" s="91"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="97"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="82" t="s">
+        <v>252</v>
+      </c>
+      <c r="D34" s="82" t="s">
+        <v>253</v>
+      </c>
+      <c r="E34" s="91"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="E35" s="94" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>